--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>93.809436406366828</v>
+        <v>93.809436402744595</v>
       </c>
       <c r="C2">
-        <v>92.154047004619002</v>
+        <v>92.154047008256299</v>
       </c>
       <c r="D2">
-        <v>94.335762136492392</v>
+        <v>94.335762145761805</v>
       </c>
       <c r="E2">
-        <v>92.540582311329743</v>
+        <v>92.540582315308072</v>
       </c>
       <c r="F2">
-        <v>95.592685514932867</v>
+        <v>95.592685517843307</v>
       </c>
       <c r="G2">
-        <v>95.158967667348975</v>
+        <v>95.158967669204515</v>
       </c>
       <c r="H2">
-        <v>94.118823861500132</v>
+        <v>94.118823865275672</v>
       </c>
       <c r="I2">
-        <v>94.789620326411494</v>
+        <v>94.789620326649938</v>
       </c>
       <c r="J2">
-        <v>92.975432878714443</v>
+        <v>92.975432887569539</v>
       </c>
       <c r="K2">
-        <v>94.981259063939902</v>
+        <v>94.981259065649866</v>
       </c>
       <c r="L2">
-        <v>97.58100201610462</v>
+        <v>97.581002019737596</v>
       </c>
       <c r="M2">
-        <v>92.030510843854003</v>
+        <v>92.030510843116815</v>
       </c>
       <c r="N2">
-        <v>94.715051656386777</v>
+        <v>94.715051658427868</v>
       </c>
       <c r="O2">
-        <v>93.419141165015844</v>
+        <v>93.419141172176538</v>
       </c>
       <c r="P2">
-        <v>93.917665591465749</v>
+        <v>93.917665588820796</v>
       </c>
       <c r="Q2">
-        <v>95.973287867747302</v>
+        <v>95.973287871366935</v>
       </c>
       <c r="R2">
-        <v>93.321681541581412</v>
+        <v>93.321681545976858</v>
       </c>
       <c r="S2">
-        <v>90.429319284544661</v>
+        <v>90.429319283796289</v>
       </c>
       <c r="T2">
-        <v>93.033171766258675</v>
+        <v>93.033171763802429</v>
       </c>
       <c r="U2">
-        <v>92.137186700708199</v>
+        <v>92.137186705884176</v>
       </c>
       <c r="V2">
-        <v>95.972544792918868</v>
+        <v>95.972544796766243</v>
       </c>
       <c r="W2">
-        <v>96.023646370924226</v>
+        <v>96.02364637985265</v>
       </c>
       <c r="X2">
-        <v>93.636416999440058</v>
+        <v>93.636417004568074</v>
       </c>
       <c r="Y2">
-        <v>90.537200419706849</v>
+        <v>90.537200425410632</v>
       </c>
       <c r="Z2">
-        <v>92.011885796165956</v>
+        <v>92.011885799941567</v>
       </c>
       <c r="AA2">
-        <v>92.850618670793168</v>
+        <v>92.850618702130632</v>
       </c>
       <c r="AB2">
-        <v>91.244433461340236</v>
+        <v>91.244433472693871</v>
       </c>
       <c r="AC2">
-        <v>95.188905420030437</v>
+        <v>95.188905429827159</v>
       </c>
       <c r="AD2">
-        <v>90.64324426853392</v>
+        <v>90.643244281816166</v>
       </c>
       <c r="AE2">
-        <v>95.915204726330714</v>
+        <v>95.915204727676212</v>
       </c>
       <c r="AF2">
-        <v>93.519634869184671</v>
+        <v>93.51963487574541</v>
       </c>
       <c r="AG2">
-        <v>95.118329201877529</v>
+        <v>95.118329217106819</v>
       </c>
       <c r="AH2">
-        <v>93.57905117241836</v>
+        <v>93.579051178218393</v>
       </c>
       <c r="AI2">
-        <v>91.234159446086437</v>
+        <v>91.234159458472348</v>
       </c>
       <c r="AJ2">
-        <v>94.628706780191152</v>
+        <v>94.628706788004465</v>
       </c>
       <c r="AK2">
-        <v>95.548020174511876</v>
+        <v>95.548020179047427</v>
       </c>
       <c r="AL2">
-        <v>92.845164731631115</v>
+        <v>92.845164738999614</v>
       </c>
       <c r="AM2">
-        <v>93.318448046790991</v>
+        <v>93.318448052619615</v>
       </c>
       <c r="AN2">
-        <v>94.292850333859818</v>
+        <v>94.292850339544714</v>
       </c>
       <c r="AO2">
-        <v>92.809254226912515</v>
+        <v>92.809254240129917</v>
       </c>
       <c r="AP2">
-        <v>92.753826028935208</v>
+        <v>92.753826034702755</v>
       </c>
       <c r="AQ2">
-        <v>94.55087045929514</v>
+        <v>94.550870470827235</v>
       </c>
       <c r="AR2">
-        <v>90.529742826339614</v>
+        <v>90.529742827644597</v>
       </c>
       <c r="AS2">
-        <v>93.366143588791289</v>
+        <v>93.366143605028398</v>
       </c>
       <c r="AT2">
-        <v>90.108744390303997</v>
+        <v>90.108744396827703</v>
       </c>
       <c r="AU2">
-        <v>94.024970296016207</v>
+        <v>94.024970297020488</v>
       </c>
       <c r="AV2">
-        <v>93.961828802864872</v>
+        <v>93.961828825177633</v>
       </c>
       <c r="AW2">
-        <v>93.226205961254678</v>
+        <v>93.2262059653129</v>
       </c>
       <c r="AX2">
-        <v>91.32970395760502</v>
+        <v>91.329703967183264</v>
       </c>
       <c r="AY2">
-        <v>90.808849467538337</v>
+        <v>90.808849474558883</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>93.246162046844518</v>
+        <v>93.246162051181301</v>
       </c>
       <c r="C3">
-        <v>94.194104929193372</v>
+        <v>94.194104932305606</v>
       </c>
       <c r="D3">
-        <v>91.711797320695027</v>
+        <v>91.711797326938864</v>
       </c>
       <c r="E3">
-        <v>91.979018298582588</v>
+        <v>91.979018298520629</v>
       </c>
       <c r="F3">
-        <v>95.776650838955661</v>
+        <v>95.776650845177727</v>
       </c>
       <c r="G3">
-        <v>92.766718144182207</v>
+        <v>92.766718147922461</v>
       </c>
       <c r="H3">
-        <v>96.7680106413532</v>
+        <v>96.768010644369625</v>
       </c>
       <c r="I3">
-        <v>93.32518614169345</v>
+        <v>93.325186143808864</v>
       </c>
       <c r="J3">
-        <v>91.576544180897457</v>
+        <v>91.576544190431576</v>
       </c>
       <c r="K3">
-        <v>89.813976421054392</v>
+        <v>89.813976425757801</v>
       </c>
       <c r="L3">
-        <v>95.006272986227586</v>
+        <v>95.006272992187959</v>
       </c>
       <c r="M3">
-        <v>92.827091867196884</v>
+        <v>92.827092579563669</v>
       </c>
       <c r="N3">
-        <v>93.690712318246099</v>
+        <v>93.690712321758312</v>
       </c>
       <c r="O3">
-        <v>95.055400932063819</v>
+        <v>95.055400935453804</v>
       </c>
       <c r="P3">
-        <v>93.009281369483915</v>
+        <v>93.009281375910675</v>
       </c>
       <c r="Q3">
-        <v>94.452384416649721</v>
+        <v>94.452384420590278</v>
       </c>
       <c r="R3">
-        <v>97.147975355774079</v>
+        <v>97.147975364030302</v>
       </c>
       <c r="S3">
-        <v>91.064790150717272</v>
+        <v>91.064790151288705</v>
       </c>
       <c r="T3">
-        <v>93.654916417828147</v>
+        <v>93.65491642157086</v>
       </c>
       <c r="U3">
-        <v>91.009476868451785</v>
+        <v>91.009476870764615</v>
       </c>
       <c r="V3">
-        <v>94.081190312495337</v>
+        <v>94.081190314882079</v>
       </c>
       <c r="W3">
-        <v>94.238535940595995</v>
+        <v>94.238535948096995</v>
       </c>
       <c r="X3">
-        <v>94.106594195721556</v>
+        <v>94.106594199792639</v>
       </c>
       <c r="Y3">
-        <v>88.508428648978409</v>
+        <v>88.508428656793583</v>
       </c>
       <c r="Z3">
-        <v>89.650707116326416</v>
+        <v>89.650707119841115</v>
       </c>
       <c r="AA3">
-        <v>93.093701275830426</v>
+        <v>93.093701271054186</v>
       </c>
       <c r="AB3">
-        <v>92.335657382798004</v>
+        <v>92.335657390640407</v>
       </c>
       <c r="AC3">
-        <v>94.890839151635404</v>
+        <v>94.890839152413861</v>
       </c>
       <c r="AD3">
-        <v>92.166279234118392</v>
+        <v>92.166279247655496</v>
       </c>
       <c r="AE3">
-        <v>95.066093777534917</v>
+        <v>95.066093781692288</v>
       </c>
       <c r="AF3">
-        <v>93.690880938216566</v>
+        <v>93.690880945134751</v>
       </c>
       <c r="AG3">
-        <v>95.021348673186623</v>
+        <v>95.02134867395084</v>
       </c>
       <c r="AH3">
-        <v>92.754197510396821</v>
+        <v>92.754197522259233</v>
       </c>
       <c r="AI3">
-        <v>88.317263635405439</v>
+        <v>88.317263649066007</v>
       </c>
       <c r="AJ3">
-        <v>94.899628614959923</v>
+        <v>94.899628621185329</v>
       </c>
       <c r="AK3">
-        <v>95.817719880584235</v>
+        <v>95.817719884658999</v>
       </c>
       <c r="AL3">
-        <v>92.429568693597119</v>
+        <v>92.429568698388039</v>
       </c>
       <c r="AM3">
-        <v>91.74731566385816</v>
+        <v>91.747315679527389</v>
       </c>
       <c r="AN3">
-        <v>96.027304464313175</v>
+        <v>96.027304473712107</v>
       </c>
       <c r="AO3">
-        <v>92.93957479791537</v>
+        <v>92.939574804783589</v>
       </c>
       <c r="AP3">
-        <v>94.549273707208968</v>
+        <v>94.549273715791514</v>
       </c>
       <c r="AQ3">
-        <v>94.773248477289656</v>
+        <v>94.773248483327521</v>
       </c>
       <c r="AR3">
-        <v>90.548558252579951</v>
+        <v>90.548558254006821</v>
       </c>
       <c r="AS3">
-        <v>95.944752620415755</v>
+        <v>95.944752634349513</v>
       </c>
       <c r="AT3">
-        <v>90.16859425339409</v>
+        <v>90.168594267091692</v>
       </c>
       <c r="AU3">
-        <v>95.957570236048852</v>
+        <v>95.957570244017248</v>
       </c>
       <c r="AV3">
-        <v>95.252616498419684</v>
+        <v>95.252616518043212</v>
       </c>
       <c r="AW3">
-        <v>94.451368706899501</v>
+        <v>94.451368722673806</v>
       </c>
       <c r="AX3">
-        <v>93.255260745307496</v>
+        <v>93.255260757358187</v>
       </c>
       <c r="AY3">
-        <v>88.919213980896245</v>
+        <v>88.919213983255744</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>93.809436402744595</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>92.154047008256299</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>94.335762145761805</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>92.540582315308072</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>95.592685517843307</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>95.158967669204515</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>94.118823865275672</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>94.789620326649938</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>92.975432887569539</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>94.981259065649866</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>97.581002019737596</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>92.030510843116815</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>94.715051658427868</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>93.419141172176538</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>93.917665588820796</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>95.973287871366935</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>93.321681545976858</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>90.429319283796289</v>
+        <v>91.987449015474127</v>
       </c>
       <c r="T2">
         <v>93.033171763802429</v>
@@ -588,55 +477,55 @@
         <v>92.011885799941567</v>
       </c>
       <c r="AA2">
-        <v>92.850618702130632</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>91.244433472693871</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>95.188905429827159</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>90.643244281816166</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>95.915204727676212</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>93.51963487574541</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>95.118329217106819</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>93.579051178218393</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>91.234159458472348</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>94.628706788004465</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>95.548020179047427</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>92.845164738999614</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>93.318448052619615</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>94.292850339544714</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>92.809254240129917</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>92.753826034702755</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>94.550870470827235</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>90.529742827644597</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>93.246162051181301</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>94.194104932305606</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>91.711797326938864</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>91.979018298520629</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>95.776650845177727</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>92.766718147922461</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>96.768010644369625</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>93.325186143808864</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>91.576544190431576</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>89.813976425757801</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>95.006272992187959</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>92.827092579563669</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>93.690712321758312</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>95.055400935453804</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>93.009281375910675</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>94.452384420590278</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>97.147975364030302</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>91.064790151288705</v>
@@ -743,55 +629,55 @@
         <v>89.650707119841115</v>
       </c>
       <c r="AA3">
-        <v>93.093701271054186</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>92.335657390640407</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>94.890839152413861</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>92.166279247655496</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>95.066093781692288</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>93.690880945134751</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>95.02134867395084</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>92.754197522259233</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>88.317263649066007</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>94.899628621185329</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>95.817719884658999</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>92.429568698388039</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>91.747315679527389</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>96.027304473712107</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>92.939574804783589</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>94.549273715791514</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>94.773248483327521</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>90.548558254006821</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>93.809436406366828</v>
+        <v>93.419141172176538</v>
       </c>
       <c r="C2">
-        <v>92.711341443212817</v>
+        <v>93.321681545976858</v>
       </c>
       <c r="D2">
-        <v>94.335762136492392</v>
+        <v>94.292850339544714</v>
       </c>
       <c r="E2">
-        <v>92.540582311329743</v>
+        <v>94.550870470827235</v>
       </c>
       <c r="F2">
         <v>95.592685514932867</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>93.246162046844518</v>
+        <v>93.786045175059073</v>
       </c>
       <c r="C3">
-        <v>94.194104929193372</v>
+        <v>97.147975364030302</v>
       </c>
       <c r="D3">
-        <v>91.711797320695027</v>
+        <v>95.751039117096752</v>
       </c>
       <c r="E3">
-        <v>91.979018298582588</v>
+        <v>94.57436246392929</v>
       </c>
       <c r="F3">
         <v>95.776650838955661</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>93.809436406366828</v>
+        <v>94.893533687534145</v>
       </c>
       <c r="C2">
-        <v>92.711341443212817</v>
+        <v>93.419141172176538</v>
       </c>
       <c r="D2">
-        <v>94.335762136492392</v>
+        <v>93.318448052619615</v>
       </c>
       <c r="E2">
-        <v>92.540582311329743</v>
+        <v>94.292850339544714</v>
       </c>
       <c r="F2">
         <v>95.592685514932867</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>93.246162046844518</v>
+        <v>93.690712321758312</v>
       </c>
       <c r="C3">
-        <v>94.194104929193372</v>
+        <v>93.786045175059073</v>
       </c>
       <c r="D3">
-        <v>91.711797320695027</v>
+        <v>91.747315679527389</v>
       </c>
       <c r="E3">
-        <v>90.674093579906781</v>
+        <v>95.751039117096752</v>
       </c>
       <c r="F3">
         <v>95.776650838955661</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>93.809436402744595</v>
+      </c>
+      <c r="C2">
+        <v>92.7113414466005</v>
+      </c>
+      <c r="D2">
+        <v>94.335762145761805</v>
+      </c>
+      <c r="E2">
+        <v>92.540582315308072</v>
+      </c>
+      <c r="F2">
+        <v>95.592685517843307</v>
+      </c>
+      <c r="G2">
+        <v>94.324407797469064</v>
+      </c>
+      <c r="H2">
+        <v>94.118823865275672</v>
+      </c>
+      <c r="I2">
+        <v>93.996553567344193</v>
+      </c>
+      <c r="J2">
+        <v>92.975432887569539</v>
+      </c>
+      <c r="K2">
+        <v>94.981259065649866</v>
+      </c>
+      <c r="L2">
+        <v>97.347987080641147</v>
+      </c>
+      <c r="M2">
+        <v>90.67782792133923</v>
+      </c>
+      <c r="N2">
         <v>94.893533687534145</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>93.419141172176538</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>93.607929425146722</v>
+      </c>
+      <c r="Q2">
+        <v>95.973287871366935</v>
+      </c>
+      <c r="R2">
+        <v>93.321681545976858</v>
+      </c>
+      <c r="T2">
+        <v>93.65673103871292</v>
+      </c>
+      <c r="U2">
+        <v>92.137186705884176</v>
+      </c>
+      <c r="V2">
+        <v>95.387868224575129</v>
+      </c>
+      <c r="W2">
+        <v>96.02364637985265</v>
+      </c>
+      <c r="X2">
+        <v>93.636417004568074</v>
+      </c>
+      <c r="Y2">
+        <v>90.537200425410632</v>
+      </c>
+      <c r="Z2">
+        <v>92.011885799941567</v>
+      </c>
+      <c r="AA2">
+        <v>92.850618702130632</v>
+      </c>
+      <c r="AB2">
+        <v>91.244433472693871</v>
+      </c>
+      <c r="AC2">
+        <v>95.188905429827159</v>
+      </c>
+      <c r="AD2">
+        <v>90.643244281816166</v>
+      </c>
+      <c r="AE2">
+        <v>95.915204727676212</v>
+      </c>
+      <c r="AF2">
+        <v>93.51963487574541</v>
+      </c>
+      <c r="AG2">
+        <v>95.118329217106819</v>
+      </c>
+      <c r="AH2">
+        <v>93.579051178218393</v>
+      </c>
+      <c r="AI2">
+        <v>91.234159458472348</v>
+      </c>
+      <c r="AJ2">
+        <v>94.628706788004465</v>
+      </c>
+      <c r="AK2">
+        <v>95.548020179047427</v>
+      </c>
+      <c r="AL2">
+        <v>92.845164738999614</v>
+      </c>
+      <c r="AM2">
         <v>93.318448052619615</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>94.292850339544714</v>
       </c>
-      <c r="F2">
-        <v>95.592685514932867</v>
-      </c>
-      <c r="G2">
-        <v>94.324407797285645</v>
-      </c>
-      <c r="H2">
-        <v>94.118823861500132</v>
-      </c>
-      <c r="I2">
-        <v>93.996553569599229</v>
-      </c>
-      <c r="J2">
-        <v>92.975432878714443</v>
-      </c>
-      <c r="K2">
-        <v>94.981259063939902</v>
-      </c>
-      <c r="L2">
-        <v>97.34798707440531</v>
-      </c>
-      <c r="M2">
-        <v>90.677827922940295</v>
-      </c>
-      <c r="N2">
-        <v>94.893533683612858</v>
-      </c>
-      <c r="O2">
-        <v>93.419141165015844</v>
-      </c>
-      <c r="P2">
-        <v>93.607929425872427</v>
-      </c>
-      <c r="Q2">
-        <v>95.973287867747302</v>
-      </c>
-      <c r="R2">
-        <v>93.321681541581412</v>
-      </c>
-      <c r="T2">
-        <v>93.656731039991726</v>
-      </c>
-      <c r="U2">
-        <v>92.137186700708199</v>
-      </c>
-      <c r="V2">
-        <v>95.387868218530286</v>
-      </c>
-      <c r="W2">
-        <v>96.023646370924226</v>
-      </c>
-      <c r="X2">
-        <v>93.636416999440058</v>
-      </c>
-      <c r="Y2">
-        <v>90.537200419706849</v>
-      </c>
-      <c r="Z2">
-        <v>92.011885796165956</v>
-      </c>
-      <c r="AA2">
-        <v>92.850618670793168</v>
-      </c>
-      <c r="AB2">
-        <v>91.244433461340236</v>
-      </c>
-      <c r="AC2">
-        <v>95.188905420030437</v>
-      </c>
-      <c r="AD2">
-        <v>90.64324426853392</v>
-      </c>
-      <c r="AE2">
-        <v>95.915204726330714</v>
-      </c>
-      <c r="AF2">
-        <v>93.519634869184671</v>
-      </c>
-      <c r="AG2">
-        <v>95.118329201877529</v>
-      </c>
-      <c r="AH2">
-        <v>93.57905117241836</v>
-      </c>
-      <c r="AI2">
-        <v>91.234159446086437</v>
-      </c>
-      <c r="AJ2">
-        <v>94.628706780191152</v>
-      </c>
-      <c r="AK2">
-        <v>95.548020174511876</v>
-      </c>
-      <c r="AL2">
-        <v>92.845164731631115</v>
-      </c>
-      <c r="AM2">
-        <v>93.318448046790991</v>
-      </c>
-      <c r="AN2">
-        <v>94.292850333859818</v>
-      </c>
       <c r="AO2">
-        <v>92.809254226912515</v>
+        <v>92.809254240129917</v>
       </c>
       <c r="AP2">
-        <v>92.352321850998607</v>
+        <v>92.352321855740243</v>
       </c>
       <c r="AQ2">
-        <v>94.55087045929514</v>
+        <v>94.550870470827235</v>
       </c>
       <c r="AR2">
-        <v>90.529742826339614</v>
+        <v>90.529742827644597</v>
       </c>
       <c r="AS2">
-        <v>93.366143588791289</v>
+        <v>93.366143605028398</v>
       </c>
       <c r="AT2">
-        <v>90.108744390303997</v>
+        <v>90.108744396827703</v>
       </c>
       <c r="AU2">
-        <v>95.155441137576375</v>
+        <v>95.15544113581052</v>
       </c>
       <c r="AV2">
-        <v>93.961828802864872</v>
+        <v>93.961828825177633</v>
       </c>
       <c r="AW2">
-        <v>93.226205961254678</v>
+        <v>93.2262059653129</v>
       </c>
       <c r="AX2">
-        <v>91.32970395760502</v>
+        <v>91.329703967183264</v>
       </c>
       <c r="AY2">
-        <v>90.808849467538337</v>
+        <v>90.808849474558883</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>93.246162051181301</v>
+      </c>
+      <c r="C3">
+        <v>94.194104932305606</v>
+      </c>
+      <c r="D3">
+        <v>91.711797326938864</v>
+      </c>
+      <c r="E3">
+        <v>90.674093579784127</v>
+      </c>
+      <c r="F3">
+        <v>95.776650845177727</v>
+      </c>
+      <c r="G3">
+        <v>92.766718147922461</v>
+      </c>
+      <c r="H3">
+        <v>96.768010644369625</v>
+      </c>
+      <c r="I3">
+        <v>93.325186143808864</v>
+      </c>
+      <c r="J3">
+        <v>91.576544190431576</v>
+      </c>
+      <c r="K3">
+        <v>90.073863120901038</v>
+      </c>
+      <c r="L3">
+        <v>95.006272992187959</v>
+      </c>
+      <c r="M3">
+        <v>93.664047291116972</v>
+      </c>
+      <c r="N3">
         <v>93.690712321758312</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>93.786045175059073</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>93.009281375910675</v>
+      </c>
+      <c r="Q3">
+        <v>94.452384420590278</v>
+      </c>
+      <c r="R3">
+        <v>97.147975364030302</v>
+      </c>
+      <c r="S3">
+        <v>91.064790151288705</v>
+      </c>
+      <c r="T3">
+        <v>93.65491642157086</v>
+      </c>
+      <c r="U3">
+        <v>91.009476870764615</v>
+      </c>
+      <c r="V3">
+        <v>93.74492390332847</v>
+      </c>
+      <c r="W3">
+        <v>94.238535948096995</v>
+      </c>
+      <c r="X3">
+        <v>94.106594199792639</v>
+      </c>
+      <c r="Y3">
+        <v>88.508428656793583</v>
+      </c>
+      <c r="Z3">
+        <v>89.650707119841115</v>
+      </c>
+      <c r="AA3">
+        <v>93.093701271054186</v>
+      </c>
+      <c r="AB3">
+        <v>92.335657390640407</v>
+      </c>
+      <c r="AC3">
+        <v>94.890839152413861</v>
+      </c>
+      <c r="AD3">
+        <v>92.166279247655496</v>
+      </c>
+      <c r="AE3">
+        <v>95.066093781692288</v>
+      </c>
+      <c r="AF3">
+        <v>93.690880945134751</v>
+      </c>
+      <c r="AG3">
+        <v>95.02134867395084</v>
+      </c>
+      <c r="AH3">
+        <v>92.754197522259233</v>
+      </c>
+      <c r="AI3">
+        <v>93.238020558058651</v>
+      </c>
+      <c r="AJ3">
+        <v>94.899628621185329</v>
+      </c>
+      <c r="AK3">
+        <v>95.817719884658999</v>
+      </c>
+      <c r="AL3">
+        <v>92.429568698388039</v>
+      </c>
+      <c r="AM3">
         <v>91.747315679527389</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>95.751039117096752</v>
       </c>
-      <c r="F3">
-        <v>95.776650838955661</v>
-      </c>
-      <c r="G3">
-        <v>92.766718144182207</v>
-      </c>
-      <c r="H3">
-        <v>96.7680106413532</v>
-      </c>
-      <c r="I3">
-        <v>93.32518614169345</v>
-      </c>
-      <c r="J3">
-        <v>91.576544180897457</v>
-      </c>
-      <c r="K3">
-        <v>90.073863114763256</v>
-      </c>
-      <c r="L3">
-        <v>95.006272986227586</v>
-      </c>
-      <c r="M3">
-        <v>93.664040747852496</v>
-      </c>
-      <c r="N3">
-        <v>93.690712318246099</v>
-      </c>
-      <c r="O3">
-        <v>93.786045168896209</v>
-      </c>
-      <c r="P3">
-        <v>93.009281369483915</v>
-      </c>
-      <c r="Q3">
-        <v>94.452384416649721</v>
-      </c>
-      <c r="R3">
-        <v>97.147975355774079</v>
-      </c>
-      <c r="S3">
-        <v>91.064790150717272</v>
-      </c>
-      <c r="T3">
-        <v>93.654916417828147</v>
-      </c>
-      <c r="U3">
-        <v>91.009476868451785</v>
-      </c>
-      <c r="V3">
-        <v>93.744923902080373</v>
-      </c>
-      <c r="W3">
-        <v>94.238535940595995</v>
-      </c>
-      <c r="X3">
-        <v>94.106594195721556</v>
-      </c>
-      <c r="Y3">
-        <v>88.508428648978409</v>
-      </c>
-      <c r="Z3">
-        <v>89.650707116326416</v>
-      </c>
-      <c r="AA3">
-        <v>93.093701275830426</v>
-      </c>
-      <c r="AB3">
-        <v>92.335657382798004</v>
-      </c>
-      <c r="AC3">
-        <v>94.890839151635404</v>
-      </c>
-      <c r="AD3">
-        <v>92.166279234118392</v>
-      </c>
-      <c r="AE3">
-        <v>95.066093777534917</v>
-      </c>
-      <c r="AF3">
-        <v>93.690880938216566</v>
-      </c>
-      <c r="AG3">
-        <v>95.021348673186623</v>
-      </c>
-      <c r="AH3">
-        <v>92.754197510396821</v>
-      </c>
-      <c r="AI3">
-        <v>93.238020542401287</v>
-      </c>
-      <c r="AJ3">
-        <v>94.899628614959923</v>
-      </c>
-      <c r="AK3">
-        <v>95.817719880584235</v>
-      </c>
-      <c r="AL3">
-        <v>92.429568693597119</v>
-      </c>
-      <c r="AM3">
-        <v>91.74731566385816</v>
-      </c>
-      <c r="AN3">
-        <v>95.75103910571886</v>
-      </c>
       <c r="AO3">
-        <v>92.93957479791537</v>
+        <v>92.939574804783589</v>
       </c>
       <c r="AP3">
-        <v>94.549273707208968</v>
+        <v>94.549273715791514</v>
       </c>
       <c r="AQ3">
-        <v>94.574362462304478</v>
+        <v>94.57436246392929</v>
       </c>
       <c r="AR3">
-        <v>90.548558252579951</v>
+        <v>90.548558254006821</v>
       </c>
       <c r="AS3">
-        <v>95.944752620415755</v>
+        <v>95.944752634349513</v>
       </c>
       <c r="AT3">
-        <v>90.16859425339409</v>
+        <v>90.168594267091692</v>
       </c>
       <c r="AU3">
-        <v>95.673937226512891</v>
+        <v>95.673937228939167</v>
       </c>
       <c r="AV3">
-        <v>95.252616498419684</v>
+        <v>95.252616518043212</v>
       </c>
       <c r="AW3">
-        <v>94.451368706899501</v>
+        <v>94.451368722673806</v>
       </c>
       <c r="AX3">
-        <v>93.255260745307496</v>
+        <v>93.255260757358187</v>
       </c>
       <c r="AY3">
-        <v>88.919213980896245</v>
+        <v>88.919213983255744</v>
       </c>
     </row>
   </sheetData>
